--- a/file/output/py_Digital_SCL_3.0.xlsx
+++ b/file/output/py_Digital_SCL_3.0.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="variables" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="correlation" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="corr_pvalue" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="variables" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="correlation" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="corr_pvalue" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11368,10 +11368,10 @@
         <v>5.425256910825407e-53</v>
       </c>
       <c r="F2" t="n">
-        <v>3.731426909465346e-61</v>
+        <v>3.731426909465864e-61</v>
       </c>
       <c r="G2" t="n">
-        <v>4.375748026223618e-61</v>
+        <v>4.375748026224183e-61</v>
       </c>
       <c r="H2" t="n">
         <v>0.1862413359296712</v>
@@ -11380,7 +11380,7 @@
         <v>0.7934317867710108</v>
       </c>
       <c r="J2" t="n">
-        <v>1.07730421680928e-07</v>
+        <v>1.077304216809296e-07</v>
       </c>
       <c r="K2" t="n">
         <v>0.05154242711343027</v>
@@ -11528,7 +11528,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.731426909465346e-61</v>
+        <v>3.731426909465864e-61</v>
       </c>
       <c r="C6" t="n">
         <v>8.033039773736731e-58</v>
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.375748026223618e-61</v>
+        <v>4.375748026224183e-61</v>
       </c>
       <c r="C7" t="n">
         <v>2.403847789005832e-58</v>
@@ -11641,7 +11641,7 @@
         <v>8.567317451804669e-20</v>
       </c>
       <c r="K8" t="n">
-        <v>4.646426098010521e-16</v>
+        <v>4.646426098010691e-16</v>
       </c>
       <c r="L8" t="n">
         <v>6.784874775059351e-16</v>
@@ -11681,13 +11681,13 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>9.435393262408734e-06</v>
+        <v>9.435393262408852e-06</v>
       </c>
       <c r="K9" t="n">
         <v>0.001489347042742114</v>
       </c>
       <c r="L9" t="n">
-        <v>9.422647761351747e-09</v>
+        <v>9.422647761351499e-09</v>
       </c>
       <c r="M9" t="n">
         <v>1.532956816780747e-06</v>
@@ -11700,7 +11700,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.07730421680928e-07</v>
+        <v>1.077304216809296e-07</v>
       </c>
       <c r="C10" t="n">
         <v>6.983660187350298e-08</v>
@@ -11721,7 +11721,7 @@
         <v>8.567317451804669e-20</v>
       </c>
       <c r="I10" t="n">
-        <v>9.435393262408734e-06</v>
+        <v>9.435393262408852e-06</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -11733,7 +11733,7 @@
         <v>5.429004327700111e-64</v>
       </c>
       <c r="M10" t="n">
-        <v>1.811075299323454e-51</v>
+        <v>1.811075299323263e-51</v>
       </c>
     </row>
     <row r="11">
@@ -11761,7 +11761,7 @@
         <v>0.3266626722299936</v>
       </c>
       <c r="H11" t="n">
-        <v>4.646426098010521e-16</v>
+        <v>4.646426098010691e-16</v>
       </c>
       <c r="I11" t="n">
         <v>0.001489347042742114</v>
@@ -11807,7 +11807,7 @@
         <v>6.784874775059351e-16</v>
       </c>
       <c r="I12" t="n">
-        <v>9.422647761351747e-09</v>
+        <v>9.422647761351499e-09</v>
       </c>
       <c r="J12" t="n">
         <v>5.429004327700111e-64</v>
@@ -11853,7 +11853,7 @@
         <v>1.532956816780747e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>1.811075299323454e-51</v>
+        <v>1.811075299323263e-51</v>
       </c>
       <c r="K13" t="n">
         <v>3.299744437900828e-20</v>
